--- a/formatexcel/absensi-wahyu.xlsx
+++ b/formatexcel/absensi-wahyu.xlsx
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,7 +92,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -374,7 +374,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,7 +423,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E2" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1">
         <v>0.70833333333333337</v>
@@ -443,7 +443,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E3" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F3" s="1">
         <v>0.70833333333333337</v>
@@ -463,7 +463,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E4" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="F4" s="1">
         <v>0.70833333333333337</v>
@@ -483,7 +483,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E5" s="1">
-        <v>0.31944444444444448</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="F5" s="1">
         <v>0.70833333333333337</v>
@@ -843,7 +843,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E23" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.30972222222222223</v>
       </c>
       <c r="F23" s="1">
         <v>0.70833333333333337</v>
